--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H2">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I2">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J2">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.1400327313044</v>
+        <v>0.1176943333333333</v>
       </c>
       <c r="N2">
-        <v>1.1400327313044</v>
+        <v>0.353083</v>
       </c>
       <c r="O2">
-        <v>0.6135255060795004</v>
+        <v>0.05829606481791055</v>
       </c>
       <c r="P2">
-        <v>0.6135255060795004</v>
+        <v>0.05829606481791055</v>
       </c>
       <c r="Q2">
-        <v>0.2534119864536307</v>
+        <v>0.03434461879866667</v>
       </c>
       <c r="R2">
-        <v>0.2534119864536307</v>
+        <v>0.309101569188</v>
       </c>
       <c r="S2">
-        <v>0.07860327211986175</v>
+        <v>0.006875777303615596</v>
       </c>
       <c r="T2">
-        <v>0.07860327211986175</v>
+        <v>0.006875777303615596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H3">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I3">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J3">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.718134076770691</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N3">
-        <v>0.718134076770691</v>
+        <v>3.54914</v>
       </c>
       <c r="O3">
-        <v>0.3864744939204997</v>
+        <v>0.5859837360842607</v>
       </c>
       <c r="P3">
-        <v>0.3864744939204997</v>
+        <v>0.5859837360842608</v>
       </c>
       <c r="Q3">
-        <v>0.159630314057986</v>
+        <v>0.3452272138933333</v>
       </c>
       <c r="R3">
-        <v>0.159630314057986</v>
+        <v>3.10704492504</v>
       </c>
       <c r="S3">
-        <v>0.04951409438075179</v>
+        <v>0.0691143336251087</v>
       </c>
       <c r="T3">
-        <v>0.04951409438075179</v>
+        <v>0.0691143336251087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51272455690132</v>
+        <v>0.291812</v>
       </c>
       <c r="H4">
-        <v>1.51272455690132</v>
+        <v>0.875436</v>
       </c>
       <c r="I4">
-        <v>0.8718826334993864</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J4">
-        <v>0.8718826334993864</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1400327313044</v>
+        <v>0.718166</v>
       </c>
       <c r="N4">
-        <v>1.1400327313044</v>
+        <v>2.154498</v>
       </c>
       <c r="O4">
-        <v>0.6135255060795004</v>
+        <v>0.3557201990978286</v>
       </c>
       <c r="P4">
-        <v>0.6135255060795004</v>
+        <v>0.3557201990978286</v>
       </c>
       <c r="Q4">
-        <v>1.72455550831545</v>
+        <v>0.209569456792</v>
       </c>
       <c r="R4">
-        <v>1.72455550831545</v>
+        <v>1.886125111128</v>
       </c>
       <c r="S4">
-        <v>0.5349222339596387</v>
+        <v>0.04195571140237619</v>
       </c>
       <c r="T4">
-        <v>0.5349222339596387</v>
+        <v>0.04195571140237619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.514066</v>
+      </c>
+      <c r="H5">
+        <v>1.542198</v>
+      </c>
+      <c r="I5">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="J5">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1176943333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.353083</v>
+      </c>
+      <c r="O5">
+        <v>0.05829606481791055</v>
+      </c>
+      <c r="P5">
+        <v>0.05829606481791055</v>
+      </c>
+      <c r="Q5">
+        <v>0.06050265515933333</v>
+      </c>
+      <c r="R5">
+        <v>0.544523896434</v>
+      </c>
+      <c r="S5">
+        <v>0.01211260446918034</v>
+      </c>
+      <c r="T5">
+        <v>0.01211260446918034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.514066</v>
+      </c>
+      <c r="H6">
+        <v>1.542198</v>
+      </c>
+      <c r="I6">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="J6">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.183046666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.54914</v>
+      </c>
+      <c r="O6">
+        <v>0.5859837360842607</v>
+      </c>
+      <c r="P6">
+        <v>0.5859837360842608</v>
+      </c>
+      <c r="Q6">
+        <v>0.6081640677466666</v>
+      </c>
+      <c r="R6">
+        <v>5.47347660972</v>
+      </c>
+      <c r="S6">
+        <v>0.1217541740206884</v>
+      </c>
+      <c r="T6">
+        <v>0.1217541740206884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.514066</v>
+      </c>
+      <c r="H7">
+        <v>1.542198</v>
+      </c>
+      <c r="I7">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="J7">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.718166</v>
+      </c>
+      <c r="N7">
+        <v>2.154498</v>
+      </c>
+      <c r="O7">
+        <v>0.3557201990978286</v>
+      </c>
+      <c r="P7">
+        <v>0.3557201990978286</v>
+      </c>
+      <c r="Q7">
+        <v>0.369184722956</v>
+      </c>
+      <c r="R7">
+        <v>3.322662506603999</v>
+      </c>
+      <c r="S7">
+        <v>0.07391061621103286</v>
+      </c>
+      <c r="T7">
+        <v>0.07391061621103286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.668241</v>
+      </c>
+      <c r="H8">
+        <v>5.004723</v>
+      </c>
+      <c r="I8">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J8">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1176943333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.353083</v>
+      </c>
+      <c r="O8">
+        <v>0.05829606481791055</v>
+      </c>
+      <c r="P8">
+        <v>0.05829606481791055</v>
+      </c>
+      <c r="Q8">
+        <v>0.1963425123343333</v>
+      </c>
+      <c r="R8">
+        <v>1.767082611009</v>
+      </c>
+      <c r="S8">
+        <v>0.03930768304511461</v>
+      </c>
+      <c r="T8">
+        <v>0.03930768304511462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.51272455690132</v>
-      </c>
-      <c r="H5">
-        <v>1.51272455690132</v>
-      </c>
-      <c r="I5">
-        <v>0.8718826334993864</v>
-      </c>
-      <c r="J5">
-        <v>0.8718826334993864</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.718134076770691</v>
-      </c>
-      <c r="N5">
-        <v>0.718134076770691</v>
-      </c>
-      <c r="O5">
-        <v>0.3864744939204997</v>
-      </c>
-      <c r="P5">
-        <v>0.3864744939204997</v>
-      </c>
-      <c r="Q5">
-        <v>1.086339053078682</v>
-      </c>
-      <c r="R5">
-        <v>1.086339053078682</v>
-      </c>
-      <c r="S5">
-        <v>0.3369603995397478</v>
-      </c>
-      <c r="T5">
-        <v>0.3369603995397478</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.668241</v>
+      </c>
+      <c r="H9">
+        <v>5.004723</v>
+      </c>
+      <c r="I9">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J9">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.183046666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.54914</v>
+      </c>
+      <c r="O9">
+        <v>0.5859837360842607</v>
+      </c>
+      <c r="P9">
+        <v>0.5859837360842608</v>
+      </c>
+      <c r="Q9">
+        <v>1.973606954246667</v>
+      </c>
+      <c r="R9">
+        <v>17.76246258822</v>
+      </c>
+      <c r="S9">
+        <v>0.3951152284384636</v>
+      </c>
+      <c r="T9">
+        <v>0.3951152284384638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.668241</v>
+      </c>
+      <c r="H10">
+        <v>5.004723</v>
+      </c>
+      <c r="I10">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J10">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.718166</v>
+      </c>
+      <c r="N10">
+        <v>2.154498</v>
+      </c>
+      <c r="O10">
+        <v>0.3557201990978286</v>
+      </c>
+      <c r="P10">
+        <v>0.3557201990978286</v>
+      </c>
+      <c r="Q10">
+        <v>1.198073966006</v>
+      </c>
+      <c r="R10">
+        <v>10.782665694054</v>
+      </c>
+      <c r="S10">
+        <v>0.2398538714844196</v>
+      </c>
+      <c r="T10">
+        <v>0.2398538714844196</v>
       </c>
     </row>
   </sheetData>
